--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>731785.7375791289</v>
+        <v>751835.8036882572</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>606553.2040797168</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7055869.373849234</v>
+        <v>7598886.245596131</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>418.2474302270521</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +825,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -868,13 +870,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.0735581446555</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>218.682328835399</v>
       </c>
       <c r="E5" t="n">
-        <v>59.59474737021493</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>122.9742767430576</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1133,13 +1135,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>359.4007687192986</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>158.8699357521933</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1297,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362454</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>114.8528499950181</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>286.389862108573</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>175.4475408461122</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002301</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225768</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>10.88184771372322</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>175.4475408461122</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1898,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2245,10 +2247,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>61.08641542222794</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023854</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>101.1195220207933</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>231.1360967980514</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>266.8594808797418</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3560,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3664,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.06386613909843</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>136.056493076703</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3740,13 +3742,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>231.9612169263806</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>72.14903302228161</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023073</v>
+        <v>24.34318456170481</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3983,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>320.8998452559385</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>175.0349193669808</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>126.8355823247569</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4153,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>190.4707957071073</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1660.657022731622</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.554953955449</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D2" t="n">
-        <v>1594.685573170298</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E2" t="n">
         <v>1172.213421425801</v>
@@ -4334,16 +4336,16 @@
         <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.11942280532</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.304372256757</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X2" t="n">
-        <v>2091.202312876472</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y2" t="n">
-        <v>1682.916189176125</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>1331.379389918832</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>1992.21944446061</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L3" t="n">
-        <v>2009.22077188965</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M3" t="n">
-        <v>2670.060826431428</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N3" t="n">
-        <v>2670.060826431428</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O3" t="n">
-        <v>2670.060826431428</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P3" t="n">
-        <v>2670.060826431428</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
         <v>2670.060826431428</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>785.9943193530034</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>613.4326078362284</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>447.554615037751</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
         <v>447.554615037751</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4516,22 +4518,22 @@
         <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2210.968635687901</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>977.8129380719906</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>1456.941072251152</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>1422.839003474979</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4601,16 +4603,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308645</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N6" t="n">
-        <v>1401.144998772643</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P6" t="n">
         <v>1599.468199913098</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862856</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2545.844385276825</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>2267.41138452993</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1980.45587640036</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1708.429471986652</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1463.037717320064</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1235.618046634173</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1674.185399119637</v>
+        <v>791.4099871095558</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.042926303061</v>
+        <v>428.3789075951127</v>
       </c>
       <c r="D8" t="n">
-        <v>800.1331414775053</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E8" t="n">
-        <v>366.3583966358005</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,19 +4807,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
+        <v>488.6559039815464</v>
+      </c>
+      <c r="L8" t="n">
         <v>1149.495958523325</v>
       </c>
-      <c r="L8" t="n">
-        <v>1293.567921177998</v>
-      </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X8" t="n">
-        <v>2508.771093304892</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.484969604545</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
         <v>395.6995455410447</v>
@@ -4993,19 +4995,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1211.418991062705</v>
+        <v>2408.082100998615</v>
       </c>
       <c r="C11" t="n">
-        <v>773.2765182461285</v>
+        <v>1969.939628182039</v>
       </c>
       <c r="D11" t="n">
-        <v>773.2765182461285</v>
+        <v>1534.029843356483</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>1100.255098514778</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677763</v>
+        <v>672.387668923986</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>270.9898375472499</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374607</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374607</v>
+        <v>1686.072621982323</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>2811.80360541877</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772708</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183741</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763052</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1211.418991062705</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K12" t="n">
-        <v>366.890248656548</v>
+        <v>418.328424285066</v>
       </c>
       <c r="L12" t="n">
-        <v>366.890248656548</v>
+        <v>418.328424285066</v>
       </c>
       <c r="M12" t="n">
-        <v>366.890248656548</v>
+        <v>418.328424285066</v>
       </c>
       <c r="N12" t="n">
-        <v>366.890248656548</v>
+        <v>418.328424285066</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>418.328424285066</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.8616057763934</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>752.2998942596183</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>586.421901461141</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>416.6638977118783</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F13" t="n">
-        <v>239.9568436736345</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G13" t="n">
-        <v>74.36556869946216</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.786009559577</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2426.906563138033</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2148.473562391138</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1861.518054261568</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1589.49164984786</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1344.099895181272</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.680224495381</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1619.705114763052</v>
+        <v>2408.082100998615</v>
       </c>
       <c r="C14" t="n">
-        <v>1619.705114763052</v>
+        <v>1969.939628182039</v>
       </c>
       <c r="D14" t="n">
-        <v>1608.713349395655</v>
+        <v>1534.029843356483</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.93860455395</v>
+        <v>1100.255098514778</v>
       </c>
       <c r="F14" t="n">
-        <v>747.0711749631575</v>
+        <v>672.387668923986</v>
       </c>
       <c r="G14" t="n">
-        <v>345.6733435864214</v>
+        <v>270.9898375472499</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>1880.509478614942</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880287</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772708</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.847578183741</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705114763052</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y14" t="n">
-        <v>1619.705114763052</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>56.16259937258145</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>380.7209243387938</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2654.546840516893</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2408.667394095348</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U16" t="n">
-        <v>2130.234393348453</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V16" t="n">
-        <v>1843.278885218884</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.252480805175</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.860726138588</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5525,13 +5527,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4400.966644204577</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5546,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P18" t="n">
         <v>1224.761663117513</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1455.454534099993</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2612.502369310544</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>2499.553657656408</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>126.8499155856325</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2616.779518839444</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2370.9000724179</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2092.467071671005</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1805.511563541435</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1533.485159127727</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1288.093404461139</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1060.673733775247</v>
       </c>
     </row>
     <row r="32">
@@ -6777,28 +6779,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6938,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2093.658967439508</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3219.389950875955</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4199.569617446262</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5027.879492279658</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7017,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>303.8436874481813</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>163.9415131385558</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7348,34 +7350,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1556.022494344318</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1556.022494344318</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1120.112709518763</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>885.808449997166</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>457.9410204063738</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677763</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094008</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.254791162024</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2139.818986914647</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838882</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838882</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4615.627154809064</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4395.559927682103</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4136.33762499912</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="W41" t="n">
-        <v>2401.464528249915</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>1982.322064829226</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>1982.322064829226</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677763</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="L42" t="n">
-        <v>330.2377696303402</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="M42" t="n">
-        <v>330.2377696303402</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="N42" t="n">
-        <v>1024.801965382963</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="O42" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.2024157797618</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>571.6407042629868</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D43" t="n">
-        <v>405.7627114645095</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E43" t="n">
-        <v>236.0047077152468</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F43" t="n">
-        <v>59.29765367700296</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1971.734288653627</v>
+        <v>2408.082100998615</v>
       </c>
       <c r="C44" t="n">
-        <v>1533.59181583705</v>
+        <v>1969.939628182039</v>
       </c>
       <c r="D44" t="n">
-        <v>1097.682031011495</v>
+        <v>1534.029843356483</v>
       </c>
       <c r="E44" t="n">
-        <v>773.5407731772136</v>
+        <v>1100.255098514778</v>
       </c>
       <c r="F44" t="n">
-        <v>345.6733435864214</v>
+        <v>672.387668923986</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>270.9898375472499</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>750.6905954094008</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.254791162024</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2111.755787086258</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.319982838882</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838882</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V44" t="n">
-        <v>2806.319982838882</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W44" t="n">
-        <v>2806.319982838882</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X44" t="n">
-        <v>2806.319982838882</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y44" t="n">
-        <v>2398.033859138535</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>56.16259937258145</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>380.7209243387938</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.8616057763934</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C46" t="n">
-        <v>924.8616057763934</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2672.786009559577</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2426.906563138033</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="U46" t="n">
-        <v>2148.473562391138</v>
+        <v>2272.755339772755</v>
       </c>
       <c r="V46" t="n">
-        <v>1861.518054261568</v>
+        <v>1985.799831643186</v>
       </c>
       <c r="W46" t="n">
-        <v>1589.49164984786</v>
+        <v>1713.773427229477</v>
       </c>
       <c r="X46" t="n">
-        <v>1344.099895181272</v>
+        <v>1468.38167256289</v>
       </c>
       <c r="Y46" t="n">
-        <v>1116.680224495381</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>17.17305800913118</v>
-      </c>
-      <c r="M3" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8149,7 +8151,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O6" t="n">
-        <v>200.3264657984394</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8538,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>336.0996312917832</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949880973</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9173,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>548.4053581629769</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>92.06596429261208</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>84.43304486678517</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>638.2669124058198</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,10 +10603,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.02274874679006</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10838,7 +10840,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>673.2333292163985</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>276.8801716904672</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>673.233329216398</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949880973</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>143.0471352847147</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>110.7913121651036</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142715</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>420.6688392635767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>110.7913121651036</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.7958207444067</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1599680048248</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>56.52943299419003</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>52.94985625022247</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,19 +25362,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2.446659489829585</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>26.70948359397298</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>139.5921776627227</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>197.4757804669072</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>10.66632205571975</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444075</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>108.5371521373493</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>111.2039336442351</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>37.38363054573563</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>34.6746782719255</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>445849.7101272214</v>
+        <v>631696.6646367318</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>445849.7101272213</v>
+        <v>631696.6646367318</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673615.4548090578</v>
+        <v>673615.4548090579</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673615.4548090576</v>
+        <v>673615.4548090579</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673615.4548090579</v>
+        <v>673615.4548090576</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>445849.7101272214</v>
+        <v>631696.6646367318</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>445849.7101272213</v>
+        <v>631696.6646367316</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287653</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
-        <v>226664.2557973349</v>
+        <v>321146.456142557</v>
       </c>
       <c r="F2" t="n">
-        <v>226664.2557973349</v>
+        <v>321146.456142557</v>
       </c>
       <c r="G2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
@@ -26344,16 +26346,16 @@
         <v>342457.429689279</v>
       </c>
       <c r="M2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="O2" t="n">
-        <v>226664.2557973349</v>
+        <v>321146.456142557</v>
       </c>
       <c r="P2" t="n">
-        <v>226664.2557973349</v>
+        <v>321146.4561425571</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>62797.73829708054</v>
+        <v>88974.20123403627</v>
       </c>
       <c r="F4" t="n">
-        <v>62797.73829708053</v>
+        <v>88974.20123403627</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
@@ -26439,7 +26441,7 @@
         <v>94878.44464875288</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
@@ -26451,13 +26453,13 @@
         <v>94878.44464875288</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="O4" t="n">
-        <v>62797.73829708053</v>
+        <v>88974.20123403629</v>
       </c>
       <c r="P4" t="n">
-        <v>62797.73829708054</v>
+        <v>88974.20123403629</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123306.0004834803</v>
+        <v>-123306.0004834802</v>
       </c>
       <c r="C6" t="n">
-        <v>100393.6981005648</v>
+        <v>100393.6981005647</v>
       </c>
       <c r="D6" t="n">
-        <v>100393.6981005647</v>
+        <v>100393.6981005646</v>
       </c>
       <c r="E6" t="n">
-        <v>111039.4571606472</v>
+        <v>10241.22585444414</v>
       </c>
       <c r="F6" t="n">
-        <v>121210.4537611034</v>
+        <v>160906.979426192</v>
       </c>
       <c r="G6" t="n">
-        <v>11801.2694886244</v>
+        <v>140770.9372621257</v>
       </c>
       <c r="H6" t="n">
-        <v>169860.7464347336</v>
+        <v>169860.7464347335</v>
       </c>
       <c r="I6" t="n">
         <v>169860.7464347336</v>
       </c>
       <c r="J6" t="n">
-        <v>-4790.602282972526</v>
+        <v>-4790.602282972541</v>
       </c>
       <c r="K6" t="n">
         <v>169860.7464347336</v>
@@ -26552,16 +26554,16 @@
         <v>169860.7464347336</v>
       </c>
       <c r="M6" t="n">
-        <v>161371.6647313929</v>
+        <v>44109.65809904289</v>
       </c>
       <c r="N6" t="n">
         <v>169860.7464347336</v>
       </c>
       <c r="O6" t="n">
-        <v>121210.4537611034</v>
+        <v>160906.9794261919</v>
       </c>
       <c r="P6" t="n">
-        <v>121210.4537611034</v>
+        <v>160906.979426192</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.18956716623569</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>71.7441324320807</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27588,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>44.07191583437728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.8683581419009</v>
       </c>
       <c r="E5" t="n">
-        <v>369.8422500230728</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27822,10 +27824,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>120.4463752142717</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>74.36027936911228</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>256.0811030342891</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30280,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-5.19977698876701e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30420,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -34702,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>17.17305800913118</v>
-      </c>
-      <c r="M3" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N6" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O6" t="n">
-        <v>200.3264657984394</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>336.0996312917832</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949880973</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35893,16 +35895,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>548.4053581629769</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>92.06596429261208</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36124,16 +36126,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>84.43304486678517</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>638.2669124058198</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36373,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>-6.786426882829224e-13</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37318,13 +37320,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.02274874679006</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37558,7 +37560,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37716,7 +37718,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165102</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>673.2333292163985</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>276.8801716904672</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>673.233329216398</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949880973</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>751835.8036882572</v>
+        <v>751229.7160593603</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797168</v>
+        <v>606553.204079715</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7598886.245596131</v>
+        <v>7598886.245596133</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>359.4361022422144</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>146.1224224236111</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -870,16 +870,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649883</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>165.4825827656711</v>
       </c>
       <c r="D5" t="n">
-        <v>218.682328835399</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>359.4007687192986</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>240.7417919871773</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1299,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>7.264602967362454</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>175.4475408461122</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.13954148002301</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.55329631630701</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>175.4475408461122</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>29.92029206558705</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>93.33789293904182</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2250,10 +2250,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6391170798906</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>61.08641542222794</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>166.5582003516151</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>101.1195220207933</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>231.1360967980514</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>43.77283765622057</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.8594808797418</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3666,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.06386613909843</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.14903302228161</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>342.510629942711</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>86.74508580040361</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170481</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>175.0349193669808</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>63.02341241305043</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.4707957071073</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2480.040423909638</v>
+        <v>1197.718769568169</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.897951093061</v>
+        <v>759.5762967515921</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
         <v>342.9481604582723</v>
@@ -4330,22 +4330,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2522.462419942932</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2522.462419942932</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2522.462419942932</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2521.647369394369</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>2506.545310014084</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y2" t="n">
-        <v>2502.299590354141</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4518,13 +4518,13 @@
         <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2489.401636434796</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2210.968635687901</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W4" t="n">
         <v>1797.089421211977</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1456.941072251152</v>
+        <v>305.9860876711973</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.839003474979</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.947762227101</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4582,37 +4582,37 @@
         <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1479.200238695656</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>277.7880908295411</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>218.9924915028009</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>791.4099871095558</v>
+        <v>1601.759173608573</v>
       </c>
       <c r="C8" t="n">
-        <v>428.3789075951127</v>
+        <v>1163.616700791996</v>
       </c>
       <c r="D8" t="n">
-        <v>396.5095268099613</v>
+        <v>1131.747320006845</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>697.9725751651397</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4810,16 +4810,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304466</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>2045.1381447155</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X8" t="n">
-        <v>1625.99568129481</v>
+        <v>2032.304463753423</v>
       </c>
       <c r="Y8" t="n">
-        <v>1217.709557594464</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2408.082100998615</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>1969.939628182039</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1534.029843356483</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>1100.255098514778</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>672.387668923986</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>270.9898375472499</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>529.0247867717716</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>529.0247867717716</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>1686.072621982323</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2811.80360541877</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4429.282663259699</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>4066.665713193525</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3661.810258604559</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3242.66779518387</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2834.381671483523</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,28 +5114,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>1030.683607422358</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>858.1218959055826</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>692.2439031071053</v>
       </c>
       <c r="E13" t="n">
-        <v>273.6484073773227</v>
+        <v>522.4858993578425</v>
       </c>
       <c r="F13" t="n">
-        <v>96.94135333907892</v>
+        <v>345.7788453195988</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885365</v>
+        <v>180.1875703454264</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>180.1875703454264</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>1222.502226141345</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2408.082100998615</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1969.939628182039</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1534.029843356483</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>1100.255098514778</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>672.387668923986</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>270.9898375472499</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2003.180357529891</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>2003.180357529891</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942682</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>4429.282663259699</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>4066.665713193525</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>3661.810258604559</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>3242.66779518387</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2834.381671483523</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,28 +5351,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5381,16 +5381,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.5053054384693</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C16" t="n">
-        <v>789.9435939216943</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D16" t="n">
-        <v>624.065601123217</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E16" t="n">
-        <v>454.3075973739543</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F16" t="n">
-        <v>277.6005433357104</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G16" t="n">
-        <v>112.0092683615381</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T16" t="n">
-        <v>2464.550262800109</v>
+        <v>2586.21326806705</v>
       </c>
       <c r="U16" t="n">
-        <v>2186.117262053214</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V16" t="n">
-        <v>1899.161753923644</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W16" t="n">
-        <v>1627.135349509936</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X16" t="n">
-        <v>1381.743594843348</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y16" t="n">
-        <v>1154.323924157457</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5527,13 +5527,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3572.656769371182</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4400.966644204577</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,22 +5758,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1455.454534099993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2612.502369310544</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>454.7008598460233</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>454.7008598460233</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3184.458419759167</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3011.896708242392</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>2846.018715443915</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2676.260711694652</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2499.553657656408</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.277038478154</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>306.120802776629</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,10 +6302,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.8551150562604</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2616.779518839444</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2370.9000724179</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2092.467071671005</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1805.511563541435</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1533.485159127727</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1288.093404461139</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.673733775247</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,13 +6776,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
         <v>1107.588885023173</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1801.895829456619</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7019,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
         <v>754.2193473420839</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2313.799635050031</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>2026.844126920461</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7256,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>639.1929661716164</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>469.4349624223536</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>469.4349624223536</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>303.8436874481813</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>163.9415131385558</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,46 +7417,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4615.627154809064</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4395.559927682103</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>4136.33762499912</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="V41" t="n">
-        <v>3773.720674932946</v>
+        <v>4105.820788749549</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3700.965334160583</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,28 +7484,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
         <v>1099.098144071247</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2639367364659</v>
+        <v>995.0825554554531</v>
       </c>
       <c r="C43" t="n">
-        <v>630.7022252196908</v>
+        <v>822.520843938678</v>
       </c>
       <c r="D43" t="n">
-        <v>464.8242324212135</v>
+        <v>656.6428511402007</v>
       </c>
       <c r="E43" t="n">
-        <v>295.0662286719508</v>
+        <v>486.884847390938</v>
       </c>
       <c r="F43" t="n">
-        <v>118.359174633707</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885365</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2408.082100998615</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>1969.939628182039</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1534.029843356483</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>1100.255098514778</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>672.387668923986</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>270.9898375472499</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7654,46 +7654,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2438.435044982809</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M44" t="n">
-        <v>2438.435044982809</v>
+        <v>2018.81125696119</v>
       </c>
       <c r="N44" t="n">
-        <v>2438.435044982809</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150691</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984088</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942682</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4688.504965942682</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="U44" t="n">
-        <v>4429.282663259699</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>4066.665713193525</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3661.810258604559</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>3242.66779518387</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2834.381671483523</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1084.16831070541</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>911.6065991886352</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D46" t="n">
-        <v>745.7286063901579</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E46" t="n">
-        <v>575.9706026408952</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F46" t="n">
-        <v>399.2635486026514</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G46" t="n">
-        <v>233.6722736284791</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2551.18834051965</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2272.755339772755</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1985.799831643186</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1713.773427229477</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1468.38167256289</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.986929424397</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8151,7 +8151,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>226.6534083847602</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8458,19 +8458,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8534,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8692,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>336.0996312917832</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>162.8103194923613</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9175,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>548.4053581629769</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>84.43304486678517</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -10433,7 +10433,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>884.102282997861</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>662.0567456881213</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>884.102282997861</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>110.7913121651036</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>2.220053416764401</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>110.7913121651036</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>329.0704884999247</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>96.56253959275541</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>41.29624514454001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>58.58727362741769</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>56.52943299419003</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>52.94985625022247</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.446659489829585</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>26.70948359397298</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>10.66632205571975</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>72.44040884377137</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>88.19489769745772</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>111.2039336442351</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>154.8431424426413</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.6746782719255</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631696.6646367318</v>
+        <v>631696.6646367321</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631696.6646367318</v>
+        <v>631696.6646367322</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673615.4548090579</v>
+        <v>673615.4548090578</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673615.4548090579</v>
+        <v>673615.4548090578</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673615.4548090578</v>
+        <v>673615.4548090576</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673615.4548090576</v>
+        <v>673615.4548090578</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631696.6646367318</v>
+        <v>631696.6646367322</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631696.6646367316</v>
+        <v>631696.6646367321</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
-        <v>321146.456142557</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="F2" t="n">
         <v>321146.456142557</v>
       </c>
       <c r="G2" t="n">
+        <v>342457.4296892791</v>
+      </c>
+      <c r="H2" t="n">
         <v>342457.429689279</v>
-      </c>
-      <c r="H2" t="n">
-        <v>342457.4296892789</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
@@ -26340,19 +26340,19 @@
         <v>342457.429689279</v>
       </c>
       <c r="K2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="L2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="M2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="O2" t="n">
-        <v>321146.456142557</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="P2" t="n">
         <v>321146.4561425571</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>173889.5352664431</v>
       </c>
       <c r="C4" t="n">
+        <v>173889.5352664431</v>
+      </c>
+      <c r="D4" t="n">
         <v>173889.535266443</v>
       </c>
-      <c r="D4" t="n">
-        <v>173889.5352664431</v>
-      </c>
       <c r="E4" t="n">
-        <v>88974.20123403627</v>
+        <v>88974.2012340363</v>
       </c>
       <c r="F4" t="n">
-        <v>88974.20123403627</v>
+        <v>88974.2012340363</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
@@ -26450,16 +26450,16 @@
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>88974.20123403629</v>
+        <v>88974.2012340363</v>
       </c>
       <c r="P4" t="n">
-        <v>88974.20123403629</v>
+        <v>88974.2012340363</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123306.0004834802</v>
+        <v>-123306.0004834801</v>
       </c>
       <c r="C6" t="n">
+        <v>100393.6981005646</v>
+      </c>
+      <c r="D6" t="n">
         <v>100393.6981005647</v>
       </c>
-      <c r="D6" t="n">
-        <v>100393.6981005646</v>
-      </c>
       <c r="E6" t="n">
-        <v>10241.22585444414</v>
+        <v>10136.03623218936</v>
       </c>
       <c r="F6" t="n">
-        <v>160906.979426192</v>
+        <v>160801.7898039373</v>
       </c>
       <c r="G6" t="n">
-        <v>140770.9372621257</v>
+        <v>140747.7129227432</v>
       </c>
       <c r="H6" t="n">
-        <v>169860.7464347335</v>
+        <v>169837.522095351</v>
       </c>
       <c r="I6" t="n">
-        <v>169860.7464347336</v>
+        <v>169837.522095351</v>
       </c>
       <c r="J6" t="n">
-        <v>-4790.602282972541</v>
+        <v>-4813.826622355181</v>
       </c>
       <c r="K6" t="n">
-        <v>169860.7464347336</v>
+        <v>169837.522095351</v>
       </c>
       <c r="L6" t="n">
-        <v>169860.7464347336</v>
+        <v>169837.522095351</v>
       </c>
       <c r="M6" t="n">
-        <v>44109.65809904289</v>
+        <v>44086.43375966016</v>
       </c>
       <c r="N6" t="n">
-        <v>169860.7464347336</v>
+        <v>169837.522095351</v>
       </c>
       <c r="O6" t="n">
-        <v>160906.9794261919</v>
+        <v>160801.7898039374</v>
       </c>
       <c r="P6" t="n">
-        <v>160906.979426192</v>
+        <v>160801.7898039374</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72.11458473508549</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>71.7441324320807</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>111.4236523045831</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>268.2784653227399</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>212.8683581419009</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>74.36027936911228</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>182.8469633077071</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078568</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>226.6534083847602</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35178,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35254,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>336.0996312917832</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>162.8103194923613</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35895,16 +35895,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>548.4053581629769</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>84.43304486678517</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37785,7 +37785,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>884.102282997861</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38022,16 +38022,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>662.0567456881213</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>884.102282997861</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
